--- a/data/Monte Patria.xlsx
+++ b/data/Monte Patria.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/Monte Patria.xlsx
+++ b/data/Monte Patria.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Don Pedro SpA</t>
+          <t>SONNEDIX DON PEDRO SPA</t>
         </is>
       </c>
       <c r="F3" t="n">

--- a/data/Monte Patria.xlsx
+++ b/data/Monte Patria.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO MOMANO</t>
+          <t>Línea de Transmisión y Central BESS Halcón 15</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CVE Proyecto Catorce SpA</t>
+          <t>BESS Halcón 15 SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8600</v>
+        <v>21120</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146654817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160829644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Don Pedro</t>
+          <t>PARQUE FOTOVOLTAICO MOMANO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SONNEDIX DON PEDRO SPA</t>
+          <t>CVE Proyecto Catorce SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12000</v>
+        <v>8600</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/10/2018</t>
+          <t>22/06/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141633677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146654817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Parque Fotovoltaico Don Pedro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SONNEDIX DON PEDRO SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>23/10/2018</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141633677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Implementación de Caldera - Planta Destiladora Monte Patria</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Compañía Pisquera de Chile S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129813739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CEMENTERIO GENERAL MUNICIPAL</t>
+          <t>Implementación de Caldera - Planta Destiladora Monte Patria</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD MONTE PATRIA</t>
+          <t>Compañía Pisquera de Chile S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>17/09/2014</t>
+          <t>23/09/2014</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129822832&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129813739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>CEMENTERIO GENERAL MUNICIPAL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ILUSTRE MUNICIPALIDAD MONTE PATRIA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>17/09/2014</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129822832&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DISPOSICIÓN DE LAS AGUAS RESIDUALES INDUSTRIALES DE SOCIEDAD AGRICOLA EL RECREO EN EL TANQUE DE RESERVA DE AGUA DE RIEGO PARA SU POSTERIOR USO EN EL RIEGO DE PARRONALES y MANDARINAS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SOCIEDAD AGRÍCOLA EL RECREO LTDA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6525011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DISPOSICIÓN DE LAS AGUAS RESIDUALES INDUSTRIALES DE SOCIEDAD AGRICOLA EL RECREO EN EL TANQUE DE RESERVA DE AGUA DE RIEGO PARA SU POSTERIOR USO EN EL RIEGO DE PARRONALES y MANDARINAS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SOCIEDAD AGRÍCOLA EL RECREO LTDA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>23/01/2012</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6525011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Disposición de las aguas residuales industriales de Sociedad Agricola El Recreo en el Tanque de reserva de agua para su posterior uso en el riego de parronales y mandarinas.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SOCIEDAD AGRÍCOLA EL RECREO LTDA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>05/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6313696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proyecto de actividades de exploración Colmillos</t>
+          <t>Disposición de las aguas residuales industriales de Sociedad Agricola El Recreo en el Tanque de reserva de agua para su posterior uso en el riego de parronales y mandarinas.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Minera Frontera del Oro SpA</t>
+          <t>SOCIEDAD AGRÍCOLA EL RECREO LTDA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1049</v>
+        <v>40</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>05/12/2011</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5522036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6313696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Proyecto de actividades de exploración Colmillos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Minera Frontera del Oro SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12000</v>
+        <v>1049</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5522036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación Sistema A.P.R., Tulahuén, Sector Cisterna Norte Comuna de Monte Patria, Provincia de Limarí, IV Región</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural de Tulahuén</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>621</v>
+        <v>12000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>27/01/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5245387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Ampliación Sistema A.P.R., Tulahuén, Sector Cisterna Norte Comuna de Monte Patria, Provincia de Limarí, IV Región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Comité de Agua Potable Rural de Tulahuén</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1750</v>
+        <v>621</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>27/01/2011</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5245387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal de la Provincia del Limari (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>14/08/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3966676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Plan Regulador Intercomunal de la Provincia del Limari (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>14/08/2009</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3966676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Implementación de un Sistema Integral de Tratamiento de RILES Hacienda Varillar- Agroproductos Bauzá S.A. (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Agroproductos Bauzá S.A.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>110</v>
+        <v>800</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/03/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3645169&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sistema Integral de Tratamiento de Riles -Hacienda Varillar- Agroproductos Bauza y Cia Ltda (e-seia)</t>
+          <t>Implementación de un Sistema Integral de Tratamiento de RILES Hacienda Varillar- Agroproductos Bauzá S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Danilo Álvarez Flores</t>
+          <t>Agroproductos Bauzá S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>20/03/2009</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3388446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3645169&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Sistema Integral de Tratamiento de Riles -Hacienda Varillar- Agroproductos Bauza y Cia Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Danilo Álvarez Flores</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1750</v>
+        <v>110</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3388446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sistema Integral de Tratamiento de RILES Hacienda Varillar- Agroproductos Bauzá y Cía Ltda (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Danilo Álvarez Flores</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>04/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2976491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema Integral de Tratamiento de RILES Hacienda Varillar- Agroproductos Bauzá y Cía Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,20 +2114,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Danilo Álvarez Flores</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>04/07/2008</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2976491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sistema Integral de Tratamiento de Riles Hacienda Varillar Agroproductos Bauza y Cia Ltda (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Rodrigo Bauza Fernandez</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2870609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Sistema Integral de Tratamiento de Riles Hacienda Varillar Agroproductos Bauza y Cia Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Rodrigo Bauza Fernandez</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1750</v>
+        <v>110</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>22/04/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2870609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sistema Integral de Tratamiento de Riles Hacienda Varillar-Montepatria (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Rodrigo Bauza Fernandez</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>1750</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>29/11/2007</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2549085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MINI CENTRAL HIDROELECTRICA LA PALOMA (e-seia)</t>
+          <t>Sistema Integral de Tratamiento de Riles Hacienda Varillar-Montepatria (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Hidropaloma S.A.</t>
+          <t>Rodrigo Bauza Fernandez</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>8000</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12/11/2007</t>
+          <t>29/11/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2549085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>MINI CENTRAL HIDROELECTRICA LA PALOMA (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Hidropaloma S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>429</v>
+        <v>8000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>12/11/2007</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SISTEMA INTEGRAL DE TRATAMIENTO DE RILES (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Rodrigo Bauza Fernandez</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>429</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>31/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2476089&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Río Grande (e-seia)</t>
+          <t>SISTEMA INTEGRAL DE TRATAMIENTO DE RILES (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Manuel Enrique Madrid Aris</t>
+          <t>Rodrigo Bauza Fernandez</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6300</v>
+        <v>100</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12/10/2007</t>
+          <t>31/10/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2476089&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Central Hidroeléctrica Río Grande (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Enrique Madrid Aris</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>234</v>
+        <v>6300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>12/10/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Río Grande (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Manuel Enrique Madrid Aris</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>6300</v>
+        <v>234</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>27/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ENACON S.A.</t>
+          <t>Manuel Enrique Madrid Aris</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12/09/2007</t>
+          <t>27/09/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2369312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroeléctrica Río Grande (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>ENACON S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>6300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>12/09/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2369312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"Implementación de una planta de tratamiento de riles para Planta Montepatria.", (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Compañía Pisquera de Chile S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2084212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>"Implementación de una planta de tratamiento de riles para Planta Montepatria.", (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Compañía Pisquera de Chile S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/04/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2084212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PROYECTO GRUPOS ELECTRÓGENOS DE RESPALDO EN MONTE PATRIA (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Elektra Generación S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2800</v>
+        <v>200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>27/10/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1768459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>PROYECTO GRUPOS ELECTRÓGENOS DE RESPALDO EN MONTE PATRIA (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,20 +2930,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Elektra Generación S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>80</v>
+        <v>2800</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>27/10/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1768459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>05/08/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de residuos industriales Planta Monte Patria (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Compañía Pisquera de Chile S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>05/11/2004</t>
+          <t>05/08/2005</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=496913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal Monte Patria (e-seia)</t>
+          <t>Sistema de tratamiento de residuos industriales Planta Monte Patria (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Monte Patria</t>
+          <t>Compañía Pisquera de Chile S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>21/10/2004</t>
+          <t>05/11/2004</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=496913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Plan Regulador Comunal Monte Patria (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,20 +3410,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ilustre Municipalidad de Monte Patria</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>21/10/2004</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Proyecto red de colectores sistema de tratamiento de las aguas servidas y disposición final de las aguas tratadas en la localidad de Las Ramadas - Comuna de Monte Patria</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MUNICIPALIDAD MONTE PATRIA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>17/04/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Construcción Cementerio Localidad de Chañaral Alto</t>
+          <t>Proyecto red de colectores sistema de tratamiento de las aguas servidas y disposición final de las aguas tratadas en la localidad de Las Ramadas - Comuna de Monte Patria</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Arzobispado de La Serena</t>
+          <t>MUNICIPALIDAD MONTE PATRIA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>26/03/2002</t>
+          <t>17/04/2002</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Construcción Cementerio Localidad de Chañaral Alto</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Arzobispado de La Serena</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>26/03/2002</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Emisario y Planta de Tratamiento de Aguas Servidas Huatulame</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Monte Patria</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>05/07/2000</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Servicio de Agua Potable Rural Las Mollacas-Hacienda Valdivia Comuna de monte Patria</t>
+          <t>Emisario y Planta de Tratamiento de Aguas Servidas Huatulame</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Ilustre Municipalidad de Monte Patria</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>05/07/2000</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Servicio de Agua Potable Rural Los Morales Comuna de Monte Patria</t>
+          <t>Servicio de Agua Potable Rural Las Mollacas-Hacienda Valdivia Comuna de monte Patria</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Extensión de Red de Agua Potable Pública de la Localidad de Monte Patria</t>
+          <t>Servicio de Agua Potable Rural Los Morales Comuna de Monte Patria</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10/02/1999</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Construcción Multicancha Graderías e Iluminación Escuela G-239 Inés de Suárez Higuera de Rapel</t>
+          <t>Extensión de Red de Agua Potable Pública de la Localidad de Monte Patria</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MUNICIPALIDAD MONTE PATRIA</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>28/08/1997</t>
+          <t>10/02/1999</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Construcción Escuela Los Angeles de Rapel</t>
+          <t>Construcción Multicancha Graderías e Iluminación Escuela G-239 Inés de Suárez Higuera de Rapel</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,11 +3851,11 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>24/07/1997</t>
+          <t>28/08/1997</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1141&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,43 +3880,91 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>Construcción Escuela Los Angeles de Rapel</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>MUNICIPALIDAD MONTE PATRIA</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>200</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>24/07/1997</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1135&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Monte Patria</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
           <t>Proyecto Minero Los Pingos</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Cuarta</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>Compañía Explotadora de Minas SPA</t>
         </is>
       </c>
-      <c r="F74" t="n">
+      <c r="F75" t="n">
         <v>3000</v>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>06/12/1996</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=142&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>Monte Patria</t>
         </is>

--- a/data/Monte Patria.xlsx
+++ b/data/Monte Patria.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
